--- a/mediciones.xlsx
+++ b/mediciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Expert Pro\Desktop\base_datos_tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F4E494-840A-4327-858B-F802F9BCFB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70E59BA-9105-4289-A4EB-C2A7A6FCAEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57C6B504-1865-418B-9B38-EADA4D56F149}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Mysql</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>selección</t>
+  </si>
+  <si>
+    <t>MONGO</t>
+  </si>
+  <si>
+    <t>POSTRESQL</t>
+  </si>
+  <si>
+    <t>MARIA DB</t>
   </si>
 </sst>
 </file>
@@ -90,10 +99,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA76CD0-B116-4834-8C4A-A904A00D3346}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +437,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -442,7 +451,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3">
         <v>4.25</v>
       </c>
@@ -454,7 +463,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4">
         <v>4.28</v>
       </c>
@@ -466,6 +475,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B5">
         <v>0.03</v>
       </c>
@@ -477,6 +489,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="B6">
         <v>0.03</v>
       </c>
@@ -488,6 +501,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="B7">
         <v>0.04</v>
       </c>
@@ -499,11 +513,90 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.89</v>
+      </c>
+      <c r="C8">
+        <v>0.191</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D9">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="D10">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D11">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D12">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0.35</v>
+      </c>
+      <c r="D13">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
